--- a/PricerAndQutation/OptionPricer_v2_20180312.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180312.xlsx
@@ -1687,17 +1687,14 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="32" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1708,28 +1705,31 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1764,34 +1764,34 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>493.5</v>
+        <v>505.5</v>
         <stp/>
         <stp>i1810</stp>
         <stp>LastPrice</stp>
+        <tr r="P22" s="1"/>
         <tr r="P21" s="1"/>
         <tr r="P20" s="1"/>
-        <tr r="P22" s="1"/>
       </tp>
       <tp>
-        <v>3602</v>
+        <v>3621</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
-        <tr r="P15" s="1"/>
         <tr r="P14" s="1"/>
+        <tr r="P20" s="9"/>
+        <tr r="P23" s="9"/>
+        <tr r="P13" s="1"/>
+        <tr r="P18" s="1"/>
+        <tr r="P16" s="1"/>
         <tr r="P17" s="9"/>
-        <tr r="P23" s="9"/>
         <tr r="P11" s="9"/>
         <tr r="P26" s="9"/>
+        <tr r="P14" s="9"/>
+        <tr r="P15" s="1"/>
         <tr r="P17" s="1"/>
-        <tr r="P20" s="9"/>
-        <tr r="P13" s="1"/>
-        <tr r="P16" s="1"/>
-        <tr r="P14" s="9"/>
-        <tr r="P18" s="1"/>
       </tp>
       <tp>
-        <v>3695</v>
+        <v>3752</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -2095,7 +2095,7 @@
   <dimension ref="B1:U153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R139" sqref="R139"/>
+      <selection activeCell="V129" sqref="V129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9559,75 +9559,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="179"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="G3" s="180" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="G3" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="L3" s="181" t="s">
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="L3" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="Q3" s="180" t="s">
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="Q3" s="184" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="G4" s="170" t="s">
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="G4" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="L4" s="170" t="s">
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="L4" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="Q4" s="170" t="s">
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="Q4" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
+      <c r="R4" s="181"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="181"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
-      <c r="G5" s="177" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="183"/>
+      <c r="G5" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="177"/>
+      <c r="H5" s="178"/>
       <c r="I5" s="142"/>
       <c r="J5" s="143"/>
       <c r="L5" s="140" t="s">
@@ -9636,360 +9636,360 @@
       <c r="M5" s="141"/>
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
-      <c r="Q5" s="177" t="s">
+      <c r="Q5" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="177"/>
+      <c r="R5" s="178"/>
       <c r="S5" s="142"/>
       <c r="T5" s="143"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="G6" s="177" t="s">
+      <c r="E6" s="177"/>
+      <c r="G6" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
-      <c r="L6" s="177" t="s">
+      <c r="H6" s="178"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
+      <c r="L6" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="177"/>
-      <c r="N6" s="178" t="s">
+      <c r="M6" s="178"/>
+      <c r="N6" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="179"/>
-      <c r="Q6" s="177" t="s">
+      <c r="O6" s="177"/>
+      <c r="Q6" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="177"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="179"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="177"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="178" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="G7" s="177" t="s">
+      <c r="E7" s="177"/>
+      <c r="G7" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
-      <c r="L7" s="177" t="s">
+      <c r="H7" s="178"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="177"/>
+      <c r="L7" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="177"/>
-      <c r="N7" s="178" t="s">
+      <c r="M7" s="178"/>
+      <c r="N7" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="179"/>
-      <c r="Q7" s="177" t="s">
+      <c r="O7" s="177"/>
+      <c r="Q7" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="177"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="179"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="177"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178">
+      <c r="C8" s="178"/>
+      <c r="D8" s="176">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="179"/>
-      <c r="G8" s="177" t="s">
+      <c r="E8" s="177"/>
+      <c r="G8" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
-      <c r="L8" s="177" t="s">
+      <c r="H8" s="178"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="177"/>
+      <c r="L8" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="177"/>
-      <c r="N8" s="178">
+      <c r="M8" s="178"/>
+      <c r="N8" s="176">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="179"/>
-      <c r="Q8" s="177" t="s">
+      <c r="O8" s="177"/>
+      <c r="Q8" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="179"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="177"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178" t="s">
+      <c r="C9" s="178"/>
+      <c r="D9" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="179"/>
-      <c r="G9" s="177" t="s">
+      <c r="E9" s="177"/>
+      <c r="G9" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
-      <c r="L9" s="177" t="s">
+      <c r="H9" s="178"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
+      <c r="L9" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="177"/>
-      <c r="N9" s="178" t="s">
+      <c r="M9" s="178"/>
+      <c r="N9" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="179"/>
-      <c r="Q9" s="177" t="s">
+      <c r="O9" s="177"/>
+      <c r="Q9" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="177"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="179"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="177"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178">
+      <c r="C10" s="178"/>
+      <c r="D10" s="176">
         <v>43084</v>
       </c>
-      <c r="E10" s="179"/>
+      <c r="E10" s="177"/>
       <c r="G10" s="144" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="144"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="179"/>
-      <c r="L10" s="177" t="s">
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
+      <c r="L10" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="177"/>
-      <c r="N10" s="178">
+      <c r="M10" s="178"/>
+      <c r="N10" s="176">
         <v>43084</v>
       </c>
-      <c r="O10" s="179"/>
+      <c r="O10" s="177"/>
       <c r="Q10" s="144" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="144"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="179"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="177"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178">
+      <c r="C11" s="178"/>
+      <c r="D11" s="176">
         <v>3935</v>
       </c>
-      <c r="E11" s="179"/>
-      <c r="G11" s="177" t="s">
+      <c r="E11" s="177"/>
+      <c r="G11" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
-      <c r="L11" s="177" t="s">
+      <c r="H11" s="178"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="L11" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="177"/>
-      <c r="N11" s="178">
+      <c r="M11" s="178"/>
+      <c r="N11" s="176">
         <v>3935</v>
       </c>
-      <c r="O11" s="179"/>
-      <c r="Q11" s="177" t="s">
+      <c r="O11" s="177"/>
+      <c r="Q11" s="178" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="177"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="179"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="177"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178">
+      <c r="C12" s="178"/>
+      <c r="D12" s="176">
         <v>3800</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="G12" s="177" t="s">
+      <c r="E12" s="177"/>
+      <c r="G12" s="178" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
-      <c r="L12" s="177" t="s">
+      <c r="H12" s="178"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
+      <c r="L12" s="178" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="177"/>
-      <c r="N12" s="178">
+      <c r="M12" s="178"/>
+      <c r="N12" s="176">
         <v>3800</v>
       </c>
-      <c r="O12" s="179"/>
-      <c r="Q12" s="177" t="s">
+      <c r="O12" s="177"/>
+      <c r="Q12" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="177"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="179"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="177"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178">
+      <c r="C13" s="178"/>
+      <c r="D13" s="176">
         <v>61</v>
       </c>
-      <c r="E13" s="179"/>
-      <c r="G13" s="177" t="s">
+      <c r="E13" s="177"/>
+      <c r="G13" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="L13" s="177" t="s">
+      <c r="H13" s="178"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
+      <c r="L13" s="178" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="177"/>
-      <c r="N13" s="178">
+      <c r="M13" s="178"/>
+      <c r="N13" s="176">
         <v>3800</v>
       </c>
-      <c r="O13" s="179"/>
-      <c r="Q13" s="177" t="s">
+      <c r="O13" s="177"/>
+      <c r="Q13" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="177"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="179"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="177"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178" t="s">
+      <c r="C14" s="178"/>
+      <c r="D14" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="G14" s="177" t="s">
+      <c r="E14" s="177"/>
+      <c r="G14" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="177"/>
+      <c r="H14" s="178"/>
       <c r="I14" s="145"/>
       <c r="J14" s="146"/>
-      <c r="L14" s="177" t="s">
+      <c r="L14" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="177"/>
-      <c r="N14" s="178">
+      <c r="M14" s="178"/>
+      <c r="N14" s="176">
         <v>61</v>
       </c>
-      <c r="O14" s="179"/>
-      <c r="Q14" s="177" t="s">
+      <c r="O14" s="177"/>
+      <c r="Q14" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="177"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="179"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="177"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178">
+      <c r="C15" s="178"/>
+      <c r="D15" s="176">
         <v>5000</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="G15" s="177" t="s">
+      <c r="E15" s="177"/>
+      <c r="G15" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
-      <c r="L15" s="177" t="s">
+      <c r="H15" s="178"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
+      <c r="L15" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="178" t="s">
+      <c r="M15" s="178"/>
+      <c r="N15" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="179"/>
-      <c r="Q15" s="177" t="s">
+      <c r="O15" s="177"/>
+      <c r="Q15" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="177"/>
+      <c r="R15" s="178"/>
       <c r="S15" s="145"/>
       <c r="T15" s="146"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175" t="s">
+      <c r="C16" s="173"/>
+      <c r="D16" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="G16" s="174" t="s">
+      <c r="E16" s="175"/>
+      <c r="G16" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
-      <c r="L16" s="177" t="s">
+      <c r="H16" s="173"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="175"/>
+      <c r="L16" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="177"/>
-      <c r="N16" s="178">
+      <c r="M16" s="178"/>
+      <c r="N16" s="176">
         <v>5000</v>
       </c>
-      <c r="O16" s="179"/>
-      <c r="Q16" s="177" t="s">
+      <c r="O16" s="177"/>
+      <c r="Q16" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="177"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="179"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="177"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="174" t="s">
+      <c r="L17" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="174"/>
-      <c r="N17" s="175" t="s">
+      <c r="M17" s="173"/>
+      <c r="N17" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="176"/>
-      <c r="Q17" s="174" t="s">
+      <c r="O17" s="175"/>
+      <c r="Q17" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="174"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="176"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="175"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="147" t="s">
@@ -10019,81 +10019,81 @@
       <c r="Y21" s="148"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="G22" s="173" t="s">
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="G22" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="L22" s="170" t="s">
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="L22" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="Q22" s="173" t="s">
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="Q22" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="V22" s="170" t="s">
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="171"/>
+      <c r="V22" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="W22" s="170"/>
-      <c r="X22" s="170"/>
-      <c r="Y22" s="170"/>
+      <c r="W22" s="181"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="181"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="164" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="164"/>
-      <c r="D23" s="171">
+      <c r="D23" s="170">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="E23" s="172"/>
       <c r="G23" s="164" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="164"/>
-      <c r="I23" s="171">
+      <c r="I23" s="170">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="J23" s="172"/>
       <c r="L23" s="164" t="s">
         <v>122</v>
       </c>
       <c r="M23" s="164"/>
-      <c r="N23" s="171">
+      <c r="N23" s="170">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="O23" s="172"/>
       <c r="Q23" s="164" t="s">
         <v>122</v>
       </c>
       <c r="R23" s="164"/>
-      <c r="S23" s="171">
+      <c r="S23" s="170">
         <f ca="1">TODAY()-1</f>
-        <v>43171</v>
+        <v>43173</v>
       </c>
       <c r="T23" s="172"/>
       <c r="V23" s="164" t="s">
         <v>122</v>
       </c>
       <c r="W23" s="164"/>
-      <c r="X23" s="171">
+      <c r="X23" s="170">
         <f ca="1">TODAY()-1</f>
-        <v>43171</v>
+        <v>43173</v>
       </c>
       <c r="Y23" s="172"/>
     </row>
@@ -10275,7 +10275,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="164"/>
-      <c r="D28" s="171">
+      <c r="D28" s="170">
         <v>43182</v>
       </c>
       <c r="E28" s="166"/>
@@ -10283,7 +10283,7 @@
         <v>134</v>
       </c>
       <c r="H28" s="164"/>
-      <c r="I28" s="171">
+      <c r="I28" s="170">
         <v>43182</v>
       </c>
       <c r="J28" s="166"/>
@@ -10291,7 +10291,7 @@
         <v>134</v>
       </c>
       <c r="M28" s="164"/>
-      <c r="N28" s="171">
+      <c r="N28" s="170">
         <v>43219</v>
       </c>
       <c r="O28" s="166"/>
@@ -10299,7 +10299,7 @@
         <v>134</v>
       </c>
       <c r="R28" s="164"/>
-      <c r="S28" s="171">
+      <c r="S28" s="170">
         <v>43201</v>
       </c>
       <c r="T28" s="166"/>
@@ -10307,7 +10307,7 @@
         <v>134</v>
       </c>
       <c r="W28" s="164"/>
-      <c r="X28" s="171">
+      <c r="X28" s="170">
         <v>43201</v>
       </c>
       <c r="Y28" s="166"/>
@@ -10566,21 +10566,21 @@
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B37" s="164" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="164"/>
-      <c r="D37" s="171">
+      <c r="D37" s="170">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="E37" s="172"/>
     </row>
@@ -10630,7 +10630,7 @@
         <v>134</v>
       </c>
       <c r="C42" s="164"/>
-      <c r="D42" s="171">
+      <c r="D42" s="170">
         <v>43196</v>
       </c>
       <c r="E42" s="166"/>
@@ -10698,61 +10698,178 @@
     <row r="49" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="251">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
@@ -10777,178 +10894,61 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11124,11 +11124,11 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:E27" ca="1" si="0">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43252</v>
+        <v>43254</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-160.75265066680163</v>
+        <v>-187.44043195400991</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24">
@@ -11157,11 +11157,11 @@
       </c>
       <c r="O8" s="24">
         <f t="shared" ref="O8" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>160.75265066680163</v>
+        <v>187.44043195400991</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3695</v>
+        <v>3752</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -11175,15 +11175,15 @@
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8" si="6">O8/P8</f>
-        <v>4.3505453495751453E-2</v>
+        <v>4.9957471203094322E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.4466054559998156</v>
+        <v>-0.48975640320350067</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-6.8136538795496335</v>
+        <v>-6.9755101225795215</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -11199,11 +11199,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43344</v>
+        <v>43346</v>
       </c>
       <c r="G9" s="10">
         <v>62.9</v>
@@ -11273,11 +11273,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" ca="1" si="12">E10+H10</f>
-        <v>43233</v>
+        <v>43235</v>
       </c>
       <c r="G10" s="10">
         <v>100</v>
@@ -11349,11 +11349,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>43233</v>
+        <v>43235</v>
       </c>
       <c r="G11" s="10">
         <v>100</v>
@@ -11449,11 +11449,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13:F14" ca="1" si="18">E13+H13</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G13" s="10">
         <v>3900</v>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>5.1575974945828875</v>
+        <v>6.5186468947303524</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -11484,11 +11484,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13:O14" si="21">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>5.1575974945828875</v>
+        <v>6.5186468947303524</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>39</v>
@@ -11502,15 +11502,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13:T14" si="23">O13/P13</f>
-        <v>1.4318704871135169E-3</v>
+        <v>1.800233884211641E-3</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>6.484054999447153E-2</v>
+        <v>7.876153817960585E-2</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>1.3053835180308795</v>
+        <v>1.5230842903338697</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11526,11 +11526,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G14" s="10">
         <v>3900</v>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>34.119967461264309</v>
+        <v>38.043538427790168</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -11561,11 +11561,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="21"/>
-        <v>34.119967461264309</v>
+        <v>38.043538427790168</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>39</v>
@@ -11579,15 +11579,15 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" si="23"/>
-        <v>9.4725062357757656E-3</v>
+        <v>1.0506362448989276E-2</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.19818351998424077</v>
+        <v>0.21494326050515156</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>4.9657870345087645</v>
+        <v>5.2377585263705555</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11603,11 +11603,11 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15:F18" ca="1" si="24">E15+H15</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G15" s="10">
         <v>3950</v>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>2.8642555821747919</v>
+        <v>3.6925890538969668</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
@@ -11638,11 +11638,11 @@
       </c>
       <c r="O15" s="13">
         <f t="shared" ref="O15:O18" si="26">IF(L15&lt;=0,ABS(L15)+N15,L15-N15)</f>
-        <v>2.8642555821747919</v>
+        <v>3.6925890538969668</v>
       </c>
       <c r="P15" s="11">
         <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>39</v>
@@ -11656,15 +11656,15 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" ref="T15:T18" si="28">O15/P15</f>
-        <v>7.9518478128117484E-4</v>
+        <v>1.0197705202698059E-3</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>3.9023060091381012E-2</v>
+        <v>4.8434984569212247E-2</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.87217945672383479</v>
+        <v>1.0432295302669843</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11680,11 +11680,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G16" s="10">
         <v>3950</v>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>26.280982851385829</v>
+        <v>29.478954157078647</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -11715,11 +11715,11 @@
       </c>
       <c r="O16" s="13">
         <f t="shared" si="26"/>
-        <v>26.280982851385829</v>
+        <v>29.478954157078647</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>39</v>
@@ -11733,15 +11733,15 @@
       </c>
       <c r="T16" s="14">
         <f t="shared" si="28"/>
-        <v>7.2962195589633067E-3</v>
+        <v>8.1411085769341751E-3</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>0.16099160445151028</v>
+        <v>0.1757627553047314</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>4.3574024291712874</v>
+        <v>4.6346822661428178</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11757,11 +11757,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G17" s="10">
         <v>4000</v>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>1.5273449777956216</v>
+        <v>2.0090380149946441</v>
       </c>
       <c r="M17" s="15">
         <v>0</v>
@@ -11792,11 +11792,11 @@
       </c>
       <c r="O17" s="13">
         <f t="shared" si="26"/>
-        <v>1.5273449777956216</v>
+        <v>2.0090380149946441</v>
       </c>
       <c r="P17" s="11">
         <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>39</v>
@@ -11810,15 +11810,15 @@
       </c>
       <c r="T17" s="14">
         <f t="shared" si="28"/>
-        <v>4.2402692331916205E-4</v>
+        <v>5.5482960922249218E-4</v>
       </c>
       <c r="U17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>2.2437573818478995E-2</v>
+        <v>2.846149308552981E-2</v>
       </c>
       <c r="V17" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>0.55225253352724124</v>
+        <v>0.67687554581814879</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11834,11 +11834,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G18" s="10">
         <v>4000</v>
@@ -11858,7 +11858,7 @@
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>20.017966708653034</v>
+        <v>22.590134933764261</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
@@ -11869,11 +11869,11 @@
       </c>
       <c r="O18" s="13">
         <f t="shared" si="26"/>
-        <v>20.017966708653034</v>
+        <v>22.590134933764261</v>
       </c>
       <c r="P18" s="11">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>39</v>
@@ -11887,15 +11887,15 @@
       </c>
       <c r="T18" s="14">
         <f t="shared" si="28"/>
-        <v>5.5574588308309365E-3</v>
+        <v>6.2386453835305885E-3</v>
       </c>
       <c r="U18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.12904954170380734</v>
+        <v>0.14183150969699909</v>
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.7545299186502064</v>
+        <v>4.0265281810069951</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -11935,11 +11935,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F22" ca="1" si="29">E20+H20</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G20" s="10">
         <v>450</v>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>1.5759290790559959</v>
+        <v>0.75142185620246593</v>
       </c>
       <c r="M20" s="15">
         <v>0</v>
@@ -11970,11 +11970,11 @@
       </c>
       <c r="O20" s="13">
         <f t="shared" ref="O20:O22" si="31">IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>1.5759290790559959</v>
+        <v>0.75142185620246593</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>493.5</v>
+        <v>505.5</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -11988,15 +11988,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" ref="T20:T22" si="33">O20/P20</f>
-        <v>3.1933719940344394E-3</v>
+        <v>1.4864922971364312E-3</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-9.2717161267330539E-2</v>
+        <v>-4.8528940969028156E-2</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>0.23463585693347611</v>
+        <v>0.14585886932236924</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12012,11 +12012,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G21" s="10">
         <v>460</v>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>2.9446709861791902</v>
+        <v>1.517559886781342</v>
       </c>
       <c r="M21" s="15">
         <v>0</v>
@@ -12047,11 +12047,11 @@
       </c>
       <c r="O21" s="13">
         <f t="shared" si="31"/>
-        <v>2.9446709861791902</v>
+        <v>1.517559886781342</v>
       </c>
       <c r="P21" s="11">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>493.5</v>
+        <v>505.5</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -12065,15 +12065,15 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="33"/>
-        <v>5.9669118260976496E-3</v>
+        <v>3.0020967097553748E-3</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.15441013754937671</v>
+        <v>-8.8068541340291517E-2</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>0.33592262947701812</v>
+        <v>0.23133803166583888</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12089,11 +12089,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="29"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G22" s="10">
         <v>470</v>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="L22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>5.0846381226757842</v>
+        <v>2.8175640312442738</v>
       </c>
       <c r="M22" s="15">
         <v>0</v>
@@ -12124,11 +12124,11 @@
       </c>
       <c r="O22" s="13">
         <f t="shared" si="31"/>
-        <v>5.0846381226757842</v>
+        <v>2.8175640312442738</v>
       </c>
       <c r="P22" s="11">
         <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>493.5</v>
+        <v>505.5</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>85</v>
@@ -12142,15 +12142,15 @@
       </c>
       <c r="T22" s="14">
         <f t="shared" si="33"/>
-        <v>1.0303218080396725E-2</v>
+        <v>5.5738160855475245E-3</v>
       </c>
       <c r="U22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.23643033601246088</v>
+        <v>-0.14621019406106939</v>
       </c>
       <c r="V22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>0.43577404977842349</v>
+        <v>0.33180238957412911</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -12190,11 +12190,11 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24" ca="1" si="34">E24+H24</f>
-        <v>43203</v>
+        <v>43205</v>
       </c>
       <c r="G24" s="10">
         <v>98</v>
@@ -12266,11 +12266,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25:F27" ca="1" si="39">E25+H25</f>
-        <v>43203</v>
+        <v>43205</v>
       </c>
       <c r="G25" s="10">
         <v>98</v>
@@ -12342,11 +12342,11 @@
       </c>
       <c r="E26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43203</v>
+        <v>43205</v>
       </c>
       <c r="G26" s="10">
         <v>95</v>
@@ -12418,11 +12418,11 @@
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ca="1" si="39"/>
-        <v>43203</v>
+        <v>43205</v>
       </c>
       <c r="G27" s="10">
         <v>95</v>
@@ -12777,11 +12777,11 @@
       </c>
       <c r="E8" s="54">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F8" s="54">
         <f ca="1">E8+H8</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G8" s="52">
         <v>100</v>
@@ -12845,11 +12845,11 @@
       </c>
       <c r="E9" s="62">
         <f ca="1">E8</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F9" s="62">
         <f ca="1">F8</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G9" s="60">
         <v>100</v>
@@ -12916,11 +12916,11 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">E9</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">F9</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G10" s="68" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -12984,11 +12984,11 @@
       </c>
       <c r="E11" s="54">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F11" s="54">
         <f ca="1">E11+H11</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G11" s="52">
         <v>3300</v>
@@ -13008,17 +13008,17 @@
       </c>
       <c r="L11" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-8.9306651275705917</v>
+        <v>-7.4827271421998489</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="51"/>
       <c r="O11" s="51">
         <f t="shared" si="0"/>
-        <v>8.9306651275705917</v>
+        <v>7.4827271421998489</v>
       </c>
       <c r="P11" s="161">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q11" s="52" t="s">
         <v>85</v>
@@ -13033,11 +13033,11 @@
       <c r="T11" s="58"/>
       <c r="U11" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>8.2165469279971148E-2</v>
+        <v>7.0486300531058532E-2</v>
       </c>
       <c r="V11" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-1.5647418970651188</v>
+        <v>-1.3998677169561233</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -13054,11 +13054,11 @@
       </c>
       <c r="E12" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F12" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G12" s="60">
         <v>4000</v>
@@ -13080,17 +13080,17 @@
       </c>
       <c r="L12" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.890159560489451</v>
+        <v>3.6457233223423202</v>
       </c>
       <c r="M12" s="65"/>
       <c r="N12" s="59"/>
       <c r="O12" s="59">
         <f t="shared" si="0"/>
-        <v>2.890159560489451</v>
+        <v>3.6457233223423202</v>
       </c>
       <c r="P12" s="111">
         <f>P11</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q12" s="60" t="s">
         <v>39</v>
@@ -13105,11 +13105,11 @@
       <c r="T12" s="66"/>
       <c r="U12" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>3.5936667703850844E-2</v>
+        <v>4.3800151350126271E-2</v>
       </c>
       <c r="V12" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.81555195771914413</v>
+        <v>0.96250601404344849</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -13126,11 +13126,11 @@
       </c>
       <c r="E13" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F13" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G13" s="68" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
@@ -13148,7 +13148,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="67">
         <f>L12+L11</f>
-        <v>-6.0405055670811407</v>
+        <v>-3.8370038198575287</v>
       </c>
       <c r="M13" s="68"/>
       <c r="N13" s="67">
@@ -13157,11 +13157,11 @@
       </c>
       <c r="O13" s="67">
         <f>IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>6.0405055670811407</v>
+        <v>3.8370038198575287</v>
       </c>
       <c r="P13" s="162">
         <f>P12</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q13" s="68"/>
       <c r="R13" s="68"/>
@@ -13170,15 +13170,15 @@
       </c>
       <c r="T13" s="72">
         <f>O13/P13</f>
-        <v>1.6769865538814937E-3</v>
+        <v>1.0596530847438632E-3</v>
       </c>
       <c r="U13" s="72">
         <f>U12+U11</f>
-        <v>0.11810213698382199</v>
+        <v>0.1142864518811848</v>
       </c>
       <c r="V13" s="72">
         <f>V12+V11</f>
-        <v>-0.74918993934597466</v>
+        <v>-0.43736170291267484</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -13194,11 +13194,11 @@
       </c>
       <c r="E14" s="54">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F14" s="54">
         <f ca="1">E14+H14</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G14" s="52">
         <v>3400</v>
@@ -13218,17 +13218,17 @@
       </c>
       <c r="L14" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-22.846998898217294</v>
+        <v>-19.685958745393009</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="51"/>
       <c r="O14" s="51">
         <f t="shared" ref="O14:O28" si="2">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>22.846998898217294</v>
+        <v>19.685958745393009</v>
       </c>
       <c r="P14" s="161">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q14" s="52" t="s">
         <v>85</v>
@@ -13243,11 +13243,11 @@
       <c r="T14" s="58"/>
       <c r="U14" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.17668184663079955</v>
+        <v>0.15634449833896724</v>
       </c>
       <c r="V14" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-2.6749468904671971</v>
+        <v>-2.4848194507225116</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -13264,11 +13264,11 @@
       </c>
       <c r="E15" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F15" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G15" s="60">
         <v>4000</v>
@@ -13290,17 +13290,17 @@
       </c>
       <c r="L15" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>2.890159560489451</v>
+        <v>3.6457233223423202</v>
       </c>
       <c r="M15" s="65"/>
       <c r="N15" s="59"/>
       <c r="O15" s="59">
         <f t="shared" si="2"/>
-        <v>2.890159560489451</v>
+        <v>3.6457233223423202</v>
       </c>
       <c r="P15" s="111">
         <f>P14</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q15" s="60" t="s">
         <v>39</v>
@@ -13315,11 +13315,11 @@
       <c r="T15" s="66"/>
       <c r="U15" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>3.5936667703850844E-2</v>
+        <v>4.3800151350126271E-2</v>
       </c>
       <c r="V15" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.81555195771914413</v>
+        <v>0.96250601404344849</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -13336,11 +13336,11 @@
       </c>
       <c r="E16" s="70">
         <f t="shared" ca="1" si="3"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F16" s="70">
         <f t="shared" ca="1" si="3"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G16" s="68" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -13358,7 +13358,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="67">
         <f>L15+L14</f>
-        <v>-19.956839337727843</v>
+        <v>-16.040235423050689</v>
       </c>
       <c r="M16" s="68"/>
       <c r="N16" s="67">
@@ -13367,11 +13367,11 @@
       </c>
       <c r="O16" s="67">
         <f t="shared" si="2"/>
-        <v>19.956839337727843</v>
+        <v>16.040235423050689</v>
       </c>
       <c r="P16" s="162">
         <f>P15</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q16" s="68"/>
       <c r="R16" s="68"/>
@@ -13380,15 +13380,15 @@
       </c>
       <c r="T16" s="72">
         <f>O16/P16</f>
-        <v>5.5404884335724163E-3</v>
+        <v>4.4297805642227808E-3</v>
       </c>
       <c r="U16" s="72">
         <f>U15+U14</f>
-        <v>0.2126185143346504</v>
+        <v>0.20014464968909351</v>
       </c>
       <c r="V16" s="72">
         <f>V15+V14</f>
-        <v>-1.859394932748053</v>
+        <v>-1.5223134366790632</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -13404,11 +13404,11 @@
       </c>
       <c r="E17" s="54">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F17" s="54">
         <f ca="1">E17+H17</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G17" s="52">
         <v>3500</v>
@@ -13428,17 +13428,17 @@
       </c>
       <c r="L17" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-49.19366350864243</v>
+        <v>-43.462428521555012</v>
       </c>
       <c r="M17" s="57"/>
       <c r="N17" s="51"/>
       <c r="O17" s="51">
         <f t="shared" si="2"/>
-        <v>49.19366350864243</v>
+        <v>43.462428521555012</v>
       </c>
       <c r="P17" s="161">
         <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q17" s="52" t="s">
         <v>85</v>
@@ -13453,11 +13453,11 @@
       <c r="T17" s="58"/>
       <c r="U17" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>0.3159535491704446</v>
+        <v>0.28755926377925789</v>
       </c>
       <c r="V17" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-3.6689858532073458</v>
+        <v>-3.5354240507542158</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -13474,11 +13474,11 @@
       </c>
       <c r="E18" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F18" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G18" s="60">
         <v>4000</v>
@@ -13500,17 +13500,17 @@
       </c>
       <c r="L18" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>2.890159560489451</v>
+        <v>3.6457233223423202</v>
       </c>
       <c r="M18" s="65"/>
       <c r="N18" s="59"/>
       <c r="O18" s="59">
         <f t="shared" si="2"/>
-        <v>2.890159560489451</v>
+        <v>3.6457233223423202</v>
       </c>
       <c r="P18" s="111">
         <f>P17</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q18" s="60" t="s">
         <v>39</v>
@@ -13525,11 +13525,11 @@
       <c r="T18" s="66"/>
       <c r="U18" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.5936667703850844E-2</v>
+        <v>4.3800151350126271E-2</v>
       </c>
       <c r="V18" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.81555195771914413</v>
+        <v>0.96250601404344849</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -13546,11 +13546,11 @@
       </c>
       <c r="E19" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F19" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="G19" s="68" t="str">
         <f>G17 &amp; "|" &amp; G18</f>
@@ -13568,7 +13568,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="67">
         <f>L18+L17</f>
-        <v>-46.303503948152979</v>
+        <v>-39.816705199212691</v>
       </c>
       <c r="M19" s="68"/>
       <c r="N19" s="67">
@@ -13577,11 +13577,11 @@
       </c>
       <c r="O19" s="67">
         <f t="shared" si="2"/>
-        <v>46.303503948152979</v>
+        <v>39.816705199212691</v>
       </c>
       <c r="P19" s="162">
         <f>P18</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q19" s="68"/>
       <c r="R19" s="68"/>
@@ -13590,15 +13590,15 @@
       </c>
       <c r="T19" s="72">
         <f>O19/P19</f>
-        <v>1.2854942795156296E-2</v>
+        <v>1.0996052250542031E-2</v>
       </c>
       <c r="U19" s="72">
         <f>U18+U17</f>
-        <v>0.35189021687429545</v>
+        <v>0.33135941512938416</v>
       </c>
       <c r="V19" s="72">
         <f>V18+V17</f>
-        <v>-2.8534338954882017</v>
+        <v>-2.5729180367107674</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="114" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -13614,11 +13614,11 @@
       </c>
       <c r="E20" s="54">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F20" s="54">
         <f ca="1">E20+H20</f>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G20" s="52">
         <v>3300</v>
@@ -13638,17 +13638,17 @@
       </c>
       <c r="L20" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-47.366335889482571</v>
+        <v>-43.697721897314636</v>
       </c>
       <c r="M20" s="57"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51">
         <f t="shared" si="2"/>
-        <v>47.366335889482571</v>
+        <v>43.697721897314636</v>
       </c>
       <c r="P20" s="161">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q20" s="52" t="s">
         <v>85</v>
@@ -13663,11 +13663,11 @@
       <c r="T20" s="58"/>
       <c r="U20" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>0.19957369682970239</v>
+        <v>0.18669472465262515</v>
       </c>
       <c r="V20" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-4.9887883479578932</v>
+        <v>-4.8151480665758868</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="112" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -13684,11 +13684,11 @@
       </c>
       <c r="E21" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F21" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G21" s="60">
         <v>4000</v>
@@ -13710,17 +13710,17 @@
       </c>
       <c r="L21" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>28.075423129659271</v>
+        <v>31.172015613900726</v>
       </c>
       <c r="M21" s="65"/>
       <c r="N21" s="59"/>
       <c r="O21" s="59">
         <f t="shared" si="2"/>
-        <v>28.075423129659271</v>
+        <v>31.172015613900726</v>
       </c>
       <c r="P21" s="111">
         <f>P20</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q21" s="60" t="s">
         <v>39</v>
@@ -13735,11 +13735,11 @@
       <c r="T21" s="66"/>
       <c r="U21" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>0.15651872505486608</v>
+        <v>0.16953951064806461</v>
       </c>
       <c r="V21" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>4.2785656535064618</v>
+        <v>4.5303031664701621</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="112" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -13756,11 +13756,11 @@
       </c>
       <c r="E22" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F22" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G22" s="68" t="str">
         <f>G20 &amp; "|" &amp; G21</f>
@@ -13778,7 +13778,7 @@
       <c r="K22" s="68"/>
       <c r="L22" s="67">
         <f>L21+L20</f>
-        <v>-19.2909127598233</v>
+        <v>-12.525706283413911</v>
       </c>
       <c r="M22" s="68"/>
       <c r="N22" s="67">
@@ -13787,11 +13787,11 @@
       </c>
       <c r="O22" s="67">
         <f t="shared" si="2"/>
-        <v>19.2909127598233</v>
+        <v>12.525706283413911</v>
       </c>
       <c r="P22" s="162">
         <f>P21</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q22" s="68"/>
       <c r="R22" s="68"/>
@@ -13800,15 +13800,15 @@
       </c>
       <c r="T22" s="72">
         <f>O22/P22</f>
-        <v>5.3556115379853695E-3</v>
+        <v>3.4591842815282826E-3</v>
       </c>
       <c r="U22" s="72">
         <f>U21+U20</f>
-        <v>0.35609242188456847</v>
+        <v>0.35623423530068976</v>
       </c>
       <c r="V22" s="72">
         <f>V21+V20</f>
-        <v>-0.71022269445143138</v>
+        <v>-0.28484490010572472</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="112" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -13824,11 +13824,11 @@
       </c>
       <c r="E23" s="54">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F23" s="54">
         <f ca="1">E23+H23</f>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G23" s="52">
         <v>3400</v>
@@ -13848,17 +13848,17 @@
       </c>
       <c r="L23" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-74.92694428198331</v>
+        <v>-69.716127364010731</v>
       </c>
       <c r="M23" s="57"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51">
         <f t="shared" si="2"/>
-        <v>74.92694428198331</v>
+        <v>69.716127364010731</v>
       </c>
       <c r="P23" s="161">
         <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q23" s="52" t="s">
         <v>85</v>
@@ -13873,11 +13873,11 @@
       <c r="T23" s="58"/>
       <c r="U23" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>0.28212218782073251</v>
+        <v>0.26647177241443387</v>
       </c>
       <c r="V23" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-6.0259972610205637</v>
+        <v>-5.8899081679359142</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="112" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -13894,11 +13894,11 @@
       </c>
       <c r="E24" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F24" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G24" s="60">
         <v>4000</v>
@@ -13920,17 +13920,17 @@
       </c>
       <c r="L24" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>28.075423129659271</v>
+        <v>31.172015613900726</v>
       </c>
       <c r="M24" s="65"/>
       <c r="N24" s="59"/>
       <c r="O24" s="59">
         <f t="shared" si="2"/>
-        <v>28.075423129659271</v>
+        <v>31.172015613900726</v>
       </c>
       <c r="P24" s="111">
         <f>P23</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q24" s="60" t="s">
         <v>39</v>
@@ -13945,11 +13945,11 @@
       <c r="T24" s="66"/>
       <c r="U24" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>0.15651872505486608</v>
+        <v>0.16953951064806461</v>
       </c>
       <c r="V24" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>4.2785656535064618</v>
+        <v>4.5303031664701621</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="112" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -13966,11 +13966,11 @@
       </c>
       <c r="E25" s="70">
         <f t="shared" ca="1" si="6"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F25" s="70">
         <f t="shared" ca="1" si="6"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G25" s="68" t="str">
         <f>G23 &amp; "|" &amp; G24</f>
@@ -13988,7 +13988,7 @@
       <c r="K25" s="68"/>
       <c r="L25" s="67">
         <f>L24+L23</f>
-        <v>-46.85152115232404</v>
+        <v>-38.544111750110005</v>
       </c>
       <c r="M25" s="68"/>
       <c r="N25" s="67">
@@ -13997,11 +13997,11 @@
       </c>
       <c r="O25" s="67">
         <f t="shared" si="2"/>
-        <v>46.85152115232404</v>
+        <v>38.544111750110005</v>
       </c>
       <c r="P25" s="162">
         <f>P24</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q25" s="68"/>
       <c r="R25" s="68"/>
@@ -14010,15 +14010,15 @@
       </c>
       <c r="T25" s="72">
         <f>O25/P25</f>
-        <v>1.300708527271628E-2</v>
+        <v>1.0644604183957471E-2</v>
       </c>
       <c r="U25" s="72">
         <f>U24+U23</f>
-        <v>0.43864091287559859</v>
+        <v>0.43601128306249848</v>
       </c>
       <c r="V25" s="72">
         <f>V24+V23</f>
-        <v>-1.7474316075141019</v>
+        <v>-1.3596050014657521</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="112" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -14034,11 +14034,11 @@
       </c>
       <c r="E26" s="54">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F26" s="54">
         <f ca="1">E26+H26</f>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G26" s="52">
         <v>3500</v>
@@ -14058,17 +14058,17 @@
       </c>
       <c r="L26" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-111.83631175433857</v>
+        <v>-104.87410167026883</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="51"/>
       <c r="O26" s="51">
         <f t="shared" si="2"/>
-        <v>111.83631175433857</v>
+        <v>104.87410167026883</v>
       </c>
       <c r="P26" s="161">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q26" s="52" t="s">
         <v>85</v>
@@ -14083,11 +14083,11 @@
       <c r="T26" s="58"/>
       <c r="U26" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>0.37529441183323797</v>
+        <v>0.35763193799311921</v>
       </c>
       <c r="V26" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-6.7606469339031037</v>
+        <v>-6.6892967878677609</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="112" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14104,11 +14104,11 @@
       </c>
       <c r="E27" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F27" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G27" s="60">
         <v>4000</v>
@@ -14130,17 +14130,17 @@
       </c>
       <c r="L27" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>28.075423129659271</v>
+        <v>31.172015613900726</v>
       </c>
       <c r="M27" s="65"/>
       <c r="N27" s="59"/>
       <c r="O27" s="59">
         <f t="shared" si="2"/>
-        <v>28.075423129659271</v>
+        <v>31.172015613900726</v>
       </c>
       <c r="P27" s="111">
         <f>P26</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q27" s="60" t="s">
         <v>39</v>
@@ -14155,11 +14155,11 @@
       <c r="T27" s="66"/>
       <c r="U27" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>0.15651872505486608</v>
+        <v>0.16953951064806461</v>
       </c>
       <c r="V27" s="59">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>4.2785656535064618</v>
+        <v>4.5303031664701621</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="112" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14176,11 +14176,11 @@
       </c>
       <c r="E28" s="70">
         <f t="shared" ca="1" si="7"/>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F28" s="70">
         <f t="shared" ca="1" si="7"/>
-        <v>43262</v>
+        <v>43264</v>
       </c>
       <c r="G28" s="68" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -14198,7 +14198,7 @@
       <c r="K28" s="68"/>
       <c r="L28" s="67">
         <f>L27+L26</f>
-        <v>-83.760888624679296</v>
+        <v>-73.702086056368103</v>
       </c>
       <c r="M28" s="68"/>
       <c r="N28" s="67">
@@ -14207,11 +14207,11 @@
       </c>
       <c r="O28" s="67">
         <f t="shared" si="2"/>
-        <v>83.760888624679296</v>
+        <v>73.702086056368103</v>
       </c>
       <c r="P28" s="162">
         <f>P27</f>
-        <v>3602</v>
+        <v>3621</v>
       </c>
       <c r="Q28" s="68"/>
       <c r="R28" s="68"/>
@@ -14220,15 +14220,15 @@
       </c>
       <c r="T28" s="72">
         <f>O28/P28</f>
-        <v>2.3253994620954829E-2</v>
+        <v>2.0354069609601795E-2</v>
       </c>
       <c r="U28" s="72">
         <f>U27+U26</f>
-        <v>0.53181313688810405</v>
+        <v>0.52717144864118382</v>
       </c>
       <c r="V28" s="72">
         <f>V27+V26</f>
-        <v>-2.4820812803966419</v>
+        <v>-2.1589936213975989</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="126" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3695</v>
+        <v>3752</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -14731,11 +14731,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -14752,30 +14752,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-35.716973953276586</v>
+        <v>-44.930273075284042</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.4295890410958907</v>
+        <v>2.467068493150685</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>38.146562994372474</v>
+        <v>47.397341568434726</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.0323833016068328E-2</v>
+        <v>1.2632553722930364E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.14240600782073898</v>
+        <v>0.15945540159485461</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.94384976287117794</v>
+        <v>0.79968278150695937</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -14817,11 +14817,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43352</v>
+        <v>43354</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -16648,18 +16648,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3695</v>
+        <v>3752</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -16673,30 +16673,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>83.850398144161318</v>
+        <v>108.17498676479181</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.4295890410958907</v>
+        <v>2.467068493150685</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>86.279987185257212</v>
+        <v>110.6420552579425</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>2.3350470144859869E-2</v>
+        <v>2.948882069774587E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.39201505823029947</v>
+        <v>0.46168178716925468</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.0676813403327969</v>
+        <v>4.268307061478481</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -16728,11 +16728,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -16798,11 +16798,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43202</v>
+        <v>43204</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
